--- a/src/site/sphinx/memo/組み込み書式について.xlsx
+++ b/src/site/sphinx/memo/組み込み書式について.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A540B8D-815F-456C-B32D-C5473871637A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="23340" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="23340" windowHeight="7965" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="1.簡易調査" sheetId="5" r:id="rId1"/>
+    <sheet name="2.詳細調査" sheetId="1" r:id="rId2"/>
+    <sheet name="3.決定版" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="319">
   <si>
     <t>インデックス番号</t>
   </si>
@@ -951,13 +951,506 @@
   </si>
   <si>
     <t>yyyy"年"m"月"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルトインフォーマット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予めExcelの初期として組み込まれたフォーマット。</t>
+    <rPh sb="0" eb="1">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックス番号でもち、フォーマットの定義を持たない。</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel2000以前の古いバージョンで利用される。</t>
+    <rPh sb="9" eb="11">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel2007以降は、全てユーザ定義となった。</t>
+    <rPh sb="9" eb="11">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JExcelAPIの場合</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公開のクラス「jxl.biff.BuiltInFormat」の内部クラスで保持される。</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apache POIの場合</t>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス「org.apache.poi.ss.usermodel.BuiltinFormats」で管理されている。</t>
+    <rPh sb="48" eb="50">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://poi.apache.org/apidocs/org/apache/poi/ss/usermodel/BuiltinFormats.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JExcelAPI（最新ver 2.6.12）</t>
+    <rPh sb="10" eb="12">
+      <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apache POI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($#,##0_);($#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POI、JexcelAPIの場合間違っている。POIの場合、通貨記号が異なる。</t>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($#,##0_);[Red]($#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($#,##0.00_);[Red]($#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dd/mm/yyyy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JexcelAPIの場合間違っている。</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d-mmm-yy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d-mmm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmm-yy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h:mm AM/PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h:mm:ss AM/PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h:mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/d/yy h:mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(#,##0_);(#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0_);(#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0;-#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POI、JexcelAPIの場合間違っている。ただし、POIは正しくとれる。</t>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(#,##0_);[Red](#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0_);[Red](#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0;[Red]-#,##0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(#,##0.00_);(#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00_);(#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00;-#,##0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(#,##0.00_);[Red](#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00_);[Red](#,##0.00)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#,##0.00;[Red]-#,##0.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_(*#,##0_);_(*(#,##0);_(*\"-\"_);(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_(* #,##0_);_(* (#,##0);_(* \"-\"_);_(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_ * #,##0_ ;_ * \\-#,##0_ ;_ * \"-\"_ ;_ @_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_($*#,##0_);_($*(#,##0);_($*\"-\"_);(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_($* #,##0_);_($* (#,##0);_($* \"-\"_);_(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">_ \"¥\"* #,##0_ ;_ \"¥\"* \\-#,##0_ ;_ \"¥\"* \"-\"_ ;_ @_ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JexcelAPIの場合間違っている。POIの場合、通貨記号が異なる。</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_(* #,##0.00_);_(* (#,##0.00);_(* \"-\"??_);(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_(* #,##0.00_);_(* (#,##0.00);_(* \"-\"??_);_(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_ * #,##0.00_ ;_ * (#,##0.00);_ * \"-\"??_ ;_ @_ "</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_($* #,##0.00_);_($* (#,##0.00);_($* \"-\"??_);(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_($* #,##0.00_);_($* (#,##0.00);_($* \"-\"??_);_(@_)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_ \"¥\"* #,##0.00_ ;_ \"¥\"* -#,##0.00_ ;_ \"¥\"* \"-\"??_ ;_ @_ "</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JexcelAPIの場合間違っている。POIの場合、通貨記号が異なる。</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm:ss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[h]mm:ss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[h]:mm:ss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm:ss.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>##0.0E+0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="16">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -976,7 +1469,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.00_);\(#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1501,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1179,7 +1681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1418,6 +1920,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1428,12 +1946,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1475,7 +1996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1508,9 +2029,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1543,6 +2081,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1718,11 +2273,783 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFC8B64-7C8C-48D5-AD30-BC5E9C99947B}">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="42.625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="34.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="190" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="190" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="193"/>
+      <c r="F18" s="194"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="195" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="195" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="195" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="196" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="171" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="5">
+        <f>HEX2DEC(B20)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="171"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="171" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:C55" si="0">HEX2DEC(B21)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="171" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="171" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="171"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="171" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="171" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="171" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="171"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="171" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="171" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="171" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="171"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D24" s="171" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="171" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="171"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="171" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="174" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="174" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="171" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="171" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="174" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="174" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D28" s="174" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="171" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D29" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="171"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="171" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D30" s="171" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="171" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="171"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="171" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D31" s="171" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="171" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="171"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="171" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D32" s="171" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="171"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="171" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D33" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="171"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="171" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D34" s="174" t="s">
+        <v>256</v>
+      </c>
+      <c r="E34" s="171" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="171"/>
+      <c r="G34" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="171" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D35" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="171"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D36" s="171" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="171" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="171"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="171" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D37" s="171" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="171"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D38" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="171"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D39" s="171" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="171"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="171" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D40" s="171" t="s">
+        <v>269</v>
+      </c>
+      <c r="E40" s="171" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="171"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="171" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D41" s="171" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="171" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="171"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="171" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="171" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D43" s="197" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="197" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="171" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="171" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D44" s="197" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" s="197" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="171" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="171" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D45" s="197" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="197" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="171" t="s">
+        <v>285</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="171" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D46" s="197" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" s="197" t="s">
+        <v>288</v>
+      </c>
+      <c r="F46" s="171" t="s">
+        <v>289</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="171" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D47" s="197" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="197" t="s">
+        <v>292</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="171" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D48" s="197" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="197" t="s">
+        <v>296</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="171" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D49" s="197" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" s="197" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="171" t="s">
+        <v>303</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D50" s="197" t="s">
+        <v>304</v>
+      </c>
+      <c r="E50" s="197" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="171" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="171" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D52" s="197" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="171" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="171" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="171" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3899,12 +5226,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6737,31 +8064,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>